--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_21_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_21_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-262846.1657749717</v>
+        <v>-265545.2178688786</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673428</v>
       </c>
     </row>
     <row r="9">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>169.459178778622</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>158.296491434383</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368134</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -741,19 +741,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V3" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W3" t="n">
-        <v>107.3805823208126</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>180.717686131888</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553084</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>105.3521980480118</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>60.10202176988263</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="5">
@@ -902,10 +902,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>412.1217610028605</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>136.5335673127885</v>
+        <v>103.5715585219377</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.1711248816494</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0911747868545</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>22.99272229386208</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>103.7082420636176</v>
+        <v>135.6019371057554</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -990,7 +990,7 @@
         <v>135.6415446830818</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>95.79797317841046</v>
       </c>
       <c r="I6" t="n">
         <v>30.79801895224382</v>
@@ -1023,10 +1023,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>140.0697787646034</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.3045852332498</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.8294102072821</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1057,16 +1057,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5641028040799</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>113.1358328502782</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>199.15003117566</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.241199726252</v>
+        <v>40.73689112244643</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>42.86078282966731</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>38.58627184703985</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>56.94404786217736</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,13 +1303,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>73.78868310316608</v>
+        <v>67.22331801800635</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1388,7 +1388,7 @@
         <v>289.9775033393747</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184549</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615208</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>72.94197557339101</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.959002459687</v>
+        <v>106.1777066159299</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1467,7 +1467,7 @@
         <v>87.2605838181255</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530787</v>
+        <v>10.48847705530785</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>176.7570753011356</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1546,7 +1546,7 @@
         <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927373</v>
+        <v>2.19459318545529</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905236</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920369</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1588,10 +1588,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560528</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1765,10 +1765,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>23.41986852520879</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1813,25 +1813,25 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>28.54004930889191</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520975</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560526</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819395</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>83.06560892427903</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>206.5509998577706</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>18.95488441967005</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>253.2918698186423</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890392</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428175</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>26.13627195705828</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,19 +2719,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>229.2938944146489</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>174.7366421803698</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2956,19 +2956,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>99.97427419833791</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>10.74993283584263</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187875</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3196,16 +3196,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>66.25628701154646</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>250.2160529405272</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.803338518786</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3442,7 +3442,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>40.6225301034174</v>
+        <v>25.73194049497329</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703264</v>
+        <v>164.9367233701392</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703262</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.0656089242822</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,7 +4135,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0177171766857</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>199.4030692042955</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="C2" t="n">
-        <v>199.4030692042955</v>
+        <v>371.26277863231</v>
       </c>
       <c r="D2" t="n">
-        <v>199.4030692042955</v>
+        <v>181.8429936158252</v>
       </c>
       <c r="E2" t="n">
-        <v>199.4030692042955</v>
+        <v>181.8429936158252</v>
       </c>
       <c r="F2" t="n">
-        <v>28.23218154912181</v>
+        <v>174.8974928666218</v>
       </c>
       <c r="G2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678535</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058996</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079189</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644756</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N2" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985584</v>
+        <v>649.4845259985581</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020266</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201471</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S2" t="n">
-        <v>578.2426392372652</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T2" t="n">
-        <v>578.2426392372652</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U2" t="n">
-        <v>388.8228542207804</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="V2" t="n">
-        <v>199.4030692042955</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="W2" t="n">
-        <v>199.4030692042955</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="X2" t="n">
-        <v>199.4030692042955</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="Y2" t="n">
-        <v>199.4030692042955</v>
+        <v>560.6825636487947</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>425.0342726003555</v>
+        <v>161.5366049464206</v>
       </c>
       <c r="C3" t="n">
-        <v>425.0342726003555</v>
+        <v>161.5366049464206</v>
       </c>
       <c r="D3" t="n">
-        <v>276.0998629391042</v>
+        <v>161.5366049464206</v>
       </c>
       <c r="E3" t="n">
-        <v>116.8624079336487</v>
+        <v>161.5366049464206</v>
       </c>
       <c r="F3" t="n">
-        <v>116.8624079336487</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G3" t="n">
-        <v>116.8624079336487</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024219</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772651</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140246</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546604</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476349</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017064</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R3" t="n">
-        <v>722.9192922843279</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="S3" t="n">
-        <v>722.9192922843279</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="T3" t="n">
-        <v>722.9192922843279</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="U3" t="n">
-        <v>722.9192922843279</v>
+        <v>533.4995072678428</v>
       </c>
       <c r="V3" t="n">
-        <v>533.499507267843</v>
+        <v>344.079722251358</v>
       </c>
       <c r="W3" t="n">
-        <v>425.0342726003555</v>
+        <v>344.079722251358</v>
       </c>
       <c r="X3" t="n">
-        <v>425.0342726003555</v>
+        <v>161.5366049464206</v>
       </c>
       <c r="Y3" t="n">
-        <v>425.0342726003555</v>
+        <v>161.5366049464206</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>504.3679202555164</v>
+        <v>320.1021922763682</v>
       </c>
       <c r="C4" t="n">
-        <v>504.3679202555164</v>
+        <v>320.1021922763682</v>
       </c>
       <c r="D4" t="n">
-        <v>354.2512808431807</v>
+        <v>169.9855528640325</v>
       </c>
       <c r="E4" t="n">
-        <v>354.2512808431807</v>
+        <v>169.9855528640325</v>
       </c>
       <c r="F4" t="n">
-        <v>207.3613333452703</v>
+        <v>169.9855528640325</v>
       </c>
       <c r="G4" t="n">
-        <v>38.67250990818523</v>
+        <v>169.9855528640325</v>
       </c>
       <c r="H4" t="n">
-        <v>38.67250990818523</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>38.67250990818523</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>106.7151088594234</v>
       </c>
       <c r="L4" t="n">
-        <v>187.8896250884407</v>
+        <v>279.6026869745584</v>
       </c>
       <c r="M4" t="n">
-        <v>373.5399563830974</v>
+        <v>465.2530182692151</v>
       </c>
       <c r="N4" t="n">
-        <v>559.1902876777542</v>
+        <v>587.3641452287293</v>
       </c>
       <c r="O4" t="n">
-        <v>721.9284911143044</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846275</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R4" t="n">
-        <v>746.7254979846275</v>
+        <v>615.9383389575114</v>
       </c>
       <c r="S4" t="n">
-        <v>746.7254979846275</v>
+        <v>615.9383389575114</v>
       </c>
       <c r="T4" t="n">
-        <v>746.7254979846275</v>
+        <v>615.9383389575114</v>
       </c>
       <c r="U4" t="n">
-        <v>746.7254979846275</v>
+        <v>509.521977292853</v>
       </c>
       <c r="V4" t="n">
-        <v>746.7254979846275</v>
+        <v>509.521977292853</v>
       </c>
       <c r="W4" t="n">
-        <v>746.7254979846275</v>
+        <v>509.521977292853</v>
       </c>
       <c r="X4" t="n">
-        <v>746.7254979846275</v>
+        <v>509.521977292853</v>
       </c>
       <c r="Y4" t="n">
-        <v>686.0163850857562</v>
+        <v>320.1021922763682</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>953.5652503652195</v>
+        <v>935.3130989230597</v>
       </c>
       <c r="C5" t="n">
-        <v>953.5652503652195</v>
+        <v>935.3130989230597</v>
       </c>
       <c r="D5" t="n">
-        <v>953.5652503652195</v>
+        <v>935.3130989230597</v>
       </c>
       <c r="E5" t="n">
-        <v>953.5652503652195</v>
+        <v>549.5248463248154</v>
       </c>
       <c r="F5" t="n">
         <v>542.5793455756119</v>
@@ -4562,55 +4562,55 @@
         <v>126.2947385020154</v>
       </c>
       <c r="I5" t="n">
-        <v>37.5661601374291</v>
+        <v>37.56616013742909</v>
       </c>
       <c r="J5" t="n">
-        <v>125.612305862087</v>
+        <v>125.6123058620869</v>
       </c>
       <c r="K5" t="n">
         <v>308.3091729405704</v>
       </c>
       <c r="L5" t="n">
-        <v>571.8625535714447</v>
+        <v>571.8625535714448</v>
       </c>
       <c r="M5" t="n">
-        <v>896.7859082672677</v>
+        <v>896.7859082672678</v>
       </c>
       <c r="N5" t="n">
         <v>1231.580670917811</v>
       </c>
       <c r="O5" t="n">
-        <v>1534.382610379519</v>
+        <v>1534.382610379518</v>
       </c>
       <c r="P5" t="n">
         <v>1758.316059280668</v>
       </c>
       <c r="Q5" t="n">
-        <v>1878.308006871455</v>
+        <v>1878.308006871454</v>
       </c>
       <c r="R5" t="n">
-        <v>1878.308006871455</v>
+        <v>1878.308006871454</v>
       </c>
       <c r="S5" t="n">
-        <v>1740.395312616113</v>
+        <v>1773.690270990709</v>
       </c>
       <c r="T5" t="n">
-        <v>1740.395312616113</v>
+        <v>1562.406306463791</v>
       </c>
       <c r="U5" t="n">
-        <v>1740.395312616113</v>
+        <v>1308.778857184139</v>
       </c>
       <c r="V5" t="n">
-        <v>1740.395312616113</v>
+        <v>1308.778857184139</v>
       </c>
       <c r="W5" t="n">
-        <v>1717.170340602111</v>
+        <v>1308.778857184139</v>
       </c>
       <c r="X5" t="n">
-        <v>1343.704582341031</v>
+        <v>935.3130989230597</v>
       </c>
       <c r="Y5" t="n">
-        <v>953.5652503652195</v>
+        <v>935.3130989230597</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>616.2147445290736</v>
+        <v>745.1962275801325</v>
       </c>
       <c r="C6" t="n">
-        <v>616.2147445290736</v>
+        <v>745.1962275801325</v>
       </c>
       <c r="D6" t="n">
-        <v>511.4589444648134</v>
+        <v>608.2245739379553</v>
       </c>
       <c r="E6" t="n">
-        <v>352.2214894593579</v>
+        <v>448.9871189324998</v>
       </c>
       <c r="F6" t="n">
-        <v>205.6869314862429</v>
+        <v>302.4525609593848</v>
       </c>
       <c r="G6" t="n">
-        <v>68.67527019020064</v>
+        <v>165.4408996633425</v>
       </c>
       <c r="H6" t="n">
-        <v>68.67527019020064</v>
+        <v>68.67527019020062</v>
       </c>
       <c r="I6" t="n">
-        <v>37.5661601374291</v>
+        <v>37.56616013742909</v>
       </c>
       <c r="J6" t="n">
-        <v>71.18799439756</v>
+        <v>186.2745935578042</v>
       </c>
       <c r="K6" t="n">
-        <v>206.8078890800185</v>
+        <v>321.8944882402627</v>
       </c>
       <c r="L6" t="n">
-        <v>435.4881151702601</v>
+        <v>550.5747143305043</v>
       </c>
       <c r="M6" t="n">
-        <v>721.704021040401</v>
+        <v>836.7906202006452</v>
       </c>
       <c r="N6" t="n">
-        <v>1029.903855192664</v>
+        <v>1144.990454352908</v>
       </c>
       <c r="O6" t="n">
-        <v>1289.626696518327</v>
+        <v>1404.713295678572</v>
       </c>
       <c r="P6" t="n">
-        <v>1754.507928219013</v>
+        <v>1593.830707169301</v>
       </c>
       <c r="Q6" t="n">
-        <v>1878.308006871455</v>
+        <v>1878.308006871454</v>
       </c>
       <c r="R6" t="n">
-        <v>1878.308006871455</v>
+        <v>1878.308006871454</v>
       </c>
       <c r="S6" t="n">
-        <v>1736.823381856704</v>
+        <v>1878.308006871454</v>
       </c>
       <c r="T6" t="n">
-        <v>1541.566225055442</v>
+        <v>1878.308006871454</v>
       </c>
       <c r="U6" t="n">
-        <v>1313.455709694551</v>
+        <v>1650.197491510563</v>
       </c>
       <c r="V6" t="n">
-        <v>1078.303601462808</v>
+        <v>1415.045383278821</v>
       </c>
       <c r="W6" t="n">
-        <v>824.0662447346065</v>
+        <v>1160.808026550619</v>
       </c>
       <c r="X6" t="n">
-        <v>616.2147445290736</v>
+        <v>952.9565263450863</v>
       </c>
       <c r="Y6" t="n">
-        <v>616.2147445290736</v>
+        <v>745.1962275801325</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.2433373652804</v>
+        <v>617.5196388489788</v>
       </c>
       <c r="C7" t="n">
-        <v>151.2433373652804</v>
+        <v>617.5196388489788</v>
       </c>
       <c r="D7" t="n">
-        <v>151.2433373652804</v>
+        <v>467.4029994366431</v>
       </c>
       <c r="E7" t="n">
-        <v>151.2433373652804</v>
+        <v>319.48990585425</v>
       </c>
       <c r="F7" t="n">
-        <v>151.2433373652804</v>
+        <v>319.48990585425</v>
       </c>
       <c r="G7" t="n">
         <v>151.2433373652804</v>
@@ -4720,10 +4720,10 @@
         <v>151.2433373652804</v>
       </c>
       <c r="I7" t="n">
-        <v>37.5661601374291</v>
+        <v>37.56616013742909</v>
       </c>
       <c r="J7" t="n">
-        <v>45.01194249256547</v>
+        <v>45.01194249256545</v>
       </c>
       <c r="K7" t="n">
         <v>187.0844868696026</v>
@@ -4747,28 +4747,28 @@
         <v>1370.039410552809</v>
       </c>
       <c r="R7" t="n">
-        <v>1255.760791512124</v>
+        <v>1370.039410552809</v>
       </c>
       <c r="S7" t="n">
-        <v>1255.760791512124</v>
+        <v>1168.877762900628</v>
       </c>
       <c r="T7" t="n">
-        <v>1255.760791512124</v>
+        <v>1168.877762900628</v>
       </c>
       <c r="U7" t="n">
-        <v>966.6282665361122</v>
+        <v>1127.72938802947</v>
       </c>
       <c r="V7" t="n">
-        <v>711.9437783302253</v>
+        <v>1127.72938802947</v>
       </c>
       <c r="W7" t="n">
-        <v>422.5266082932647</v>
+        <v>838.312217992509</v>
       </c>
       <c r="X7" t="n">
-        <v>194.5370573952474</v>
+        <v>838.312217992509</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.2433373652804</v>
+        <v>617.5196388489788</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>531.4162778577434</v>
+        <v>1614.225191671744</v>
       </c>
       <c r="C8" t="n">
-        <v>531.4162778577434</v>
+        <v>1245.262674731332</v>
       </c>
       <c r="D8" t="n">
-        <v>531.4162778577434</v>
+        <v>886.996976124582</v>
       </c>
       <c r="E8" t="n">
-        <v>531.4162778577434</v>
+        <v>501.2087235263378</v>
       </c>
       <c r="F8" t="n">
-        <v>120.4303730681358</v>
+        <v>90.22281873673023</v>
       </c>
       <c r="G8" t="n">
-        <v>108.7660268328287</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>108.7660268328287</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
         <v>795.755353087291</v>
@@ -4814,13 +4814,13 @@
         <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
         <v>2542.25058172385</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.31341879663</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V8" t="n">
-        <v>1644.250531453059</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="W8" t="n">
-        <v>1291.481876182945</v>
+        <v>2000.825031735866</v>
       </c>
       <c r="X8" t="n">
-        <v>918.0161179218651</v>
+        <v>2000.825031735866</v>
       </c>
       <c r="Y8" t="n">
-        <v>918.0161179218651</v>
+        <v>2000.825031735866</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4857,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>299.2648838844846</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>593.9684409159563</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>957.2304598751764</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N9" t="n">
-        <v>1344.515588472122</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O9" t="n">
-        <v>1676.586023648284</v>
+        <v>1675.63996629486</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2238.100841080694</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2561.393271046731</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>346.0498276483066</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C10" t="n">
-        <v>346.0498276483066</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483066</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1413.467639269233</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="U10" t="n">
-        <v>1338.933615932702</v>
+        <v>1269.331624317611</v>
       </c>
       <c r="V10" t="n">
-        <v>1084.249127726815</v>
+        <v>1269.331624317611</v>
       </c>
       <c r="W10" t="n">
-        <v>794.831957689854</v>
+        <v>1269.331624317611</v>
       </c>
       <c r="X10" t="n">
-        <v>566.8424067918367</v>
+        <v>1269.331624317611</v>
       </c>
       <c r="Y10" t="n">
-        <v>346.0498276483066</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="11">
@@ -5015,46 +5015,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2333.452899754456</v>
+        <v>2309.06237243946</v>
       </c>
       <c r="C11" t="n">
-        <v>1964.490382814045</v>
+        <v>1940.099855499049</v>
       </c>
       <c r="D11" t="n">
-        <v>1606.224684207294</v>
+        <v>1581.834156892298</v>
       </c>
       <c r="E11" t="n">
-        <v>1220.43643160905</v>
+        <v>1196.045904294054</v>
       </c>
       <c r="F11" t="n">
-        <v>809.4505268194422</v>
+        <v>785.0599995044468</v>
       </c>
       <c r="G11" t="n">
-        <v>394.8347622605877</v>
+        <v>370.4442349455923</v>
       </c>
       <c r="H11" t="n">
-        <v>101.9281932309162</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592075</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="J11" t="n">
-        <v>304.406079670689</v>
+        <v>304.4060796706893</v>
       </c>
       <c r="K11" t="n">
-        <v>695.161540565696</v>
+        <v>695.1615405656963</v>
       </c>
       <c r="L11" t="n">
         <v>1216.83000462533</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087831</v>
+        <v>1828.956123087832</v>
       </c>
       <c r="N11" t="n">
         <v>2455.600890484044</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535297</v>
+        <v>3033.988513535298</v>
       </c>
       <c r="P11" t="n">
         <v>3493.127967479997</v>
@@ -5063,28 +5063,28 @@
         <v>3789.749829464063</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796038</v>
+        <v>3876.883295796039</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345379</v>
+        <v>3876.883295796039</v>
       </c>
       <c r="T11" t="n">
-        <v>3703.320587139933</v>
+        <v>3876.883295796039</v>
       </c>
       <c r="U11" t="n">
-        <v>3449.826645261462</v>
+        <v>3769.633087093079</v>
       </c>
       <c r="V11" t="n">
-        <v>3449.826645261462</v>
+        <v>3438.570199749508</v>
       </c>
       <c r="W11" t="n">
-        <v>3097.057989991347</v>
+        <v>3085.801544479394</v>
       </c>
       <c r="X11" t="n">
-        <v>2723.592231730267</v>
+        <v>3085.801544479394</v>
       </c>
       <c r="Y11" t="n">
-        <v>2333.452899754456</v>
+        <v>2695.662212503582</v>
       </c>
     </row>
     <row r="12">
@@ -5115,19 +5115,19 @@
         <v>88.1320871839085</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592075</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="J12" t="n">
-        <v>77.53766591592075</v>
+        <v>193.8410919870414</v>
       </c>
       <c r="K12" t="n">
-        <v>354.4735703335452</v>
+        <v>470.776996404666</v>
       </c>
       <c r="L12" t="n">
-        <v>773.1706109914969</v>
+        <v>889.4740370626179</v>
       </c>
       <c r="M12" t="n">
-        <v>1011.185054749522</v>
+        <v>1397.430603019146</v>
       </c>
       <c r="N12" t="n">
         <v>1546.994364450732</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>925.516358754737</v>
+        <v>855.3874874078648</v>
       </c>
       <c r="C13" t="n">
-        <v>925.516358754737</v>
+        <v>686.4513044799579</v>
       </c>
       <c r="D13" t="n">
-        <v>775.3997193424012</v>
+        <v>686.451304479958</v>
       </c>
       <c r="E13" t="n">
-        <v>627.4866257600081</v>
+        <v>538.538210897565</v>
       </c>
       <c r="F13" t="n">
-        <v>480.5966782620977</v>
+        <v>391.6482633996548</v>
       </c>
       <c r="G13" t="n">
-        <v>313.098695073286</v>
+        <v>224.150280210843</v>
       </c>
       <c r="H13" t="n">
-        <v>168.7028415717528</v>
+        <v>79.75442670930988</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592075</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="J13" t="n">
         <v>136.8552218758649</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648146</v>
+        <v>364.1690246648147</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344813</v>
+        <v>710.5788654344814</v>
       </c>
       <c r="M13" t="n">
         <v>1086.20859537694</v>
@@ -5218,31 +5218,31 @@
         <v>2042.940349010723</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742808</v>
+        <v>2137.362968742809</v>
       </c>
       <c r="R13" t="n">
-        <v>2056.743466925584</v>
+        <v>2137.362968742809</v>
       </c>
       <c r="S13" t="n">
-        <v>1868.62761945888</v>
+        <v>2137.362968742809</v>
       </c>
       <c r="T13" t="n">
-        <v>1868.62761945888</v>
+        <v>2137.362968742809</v>
       </c>
       <c r="U13" t="n">
-        <v>1579.535926408331</v>
+        <v>1848.27127569226</v>
       </c>
       <c r="V13" t="n">
-        <v>1324.851438202444</v>
+        <v>1593.586787486373</v>
       </c>
       <c r="W13" t="n">
-        <v>1324.851438202444</v>
+        <v>1304.169617449412</v>
       </c>
       <c r="X13" t="n">
-        <v>1324.851438202444</v>
+        <v>1076.180066551395</v>
       </c>
       <c r="Y13" t="n">
-        <v>1104.058859058914</v>
+        <v>855.3874874078648</v>
       </c>
     </row>
     <row r="14">
@@ -5264,34 +5264,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5303,22 +5303,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
         <v>589.1422692637306</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.2707707770298</v>
+        <v>956.9553291057243</v>
       </c>
       <c r="C16" t="n">
-        <v>779.6143379232836</v>
+        <v>788.0191461778174</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2351.089047197418</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.70136564882</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.711814750802</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.9192356072696</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="17">
@@ -5501,31 +5501,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5540,19 +5540,19 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591808</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745235</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338367</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400686</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121617</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>261.0127623330919</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5689,7 +5689,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854705</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648818</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138404</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703103</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="20">
@@ -5753,7 +5753,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5792,7 +5792,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5832,16 +5832,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C22" t="n">
-        <v>847.644273983533</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711973</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5911,49 +5911,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2427.816735681603</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2244.961901336507</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.96308358026</v>
+        <v>2244.961901336507</v>
       </c>
       <c r="U22" t="n">
-        <v>2191.112710026076</v>
+        <v>1955.886674680705</v>
       </c>
       <c r="V22" t="n">
-        <v>1936.428221820189</v>
+        <v>1701.202186474818</v>
       </c>
       <c r="W22" t="n">
-        <v>1647.011051783229</v>
+        <v>1411.785016437858</v>
       </c>
       <c r="X22" t="n">
-        <v>1419.02150088521</v>
+        <v>1183.79546553984</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>963.0028863963103</v>
       </c>
     </row>
     <row r="23">
@@ -5978,10 +5978,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
@@ -5990,19 +5990,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400713</v>
+        <v>956.9553291057243</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121644</v>
+        <v>788.0191461778174</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121644</v>
+        <v>637.9025067654816</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121644</v>
+        <v>489.9894131830886</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121644</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6148,19 +6148,19 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2420.562808876161</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138409</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703111</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
@@ -6218,58 +6218,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,22 +6297,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
         <v>2001.151557821488</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188009</v>
+        <v>806.8386896933886</v>
       </c>
       <c r="C28" t="n">
-        <v>402.724593490894</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
         <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570817</v>
@@ -6400,34 +6400,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925707</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490406</v>
+        <v>806.8386896933886</v>
       </c>
     </row>
     <row r="29">
@@ -6437,40 +6437,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
@@ -6482,31 +6482,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.853600740071</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121641</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D31" t="n">
-        <v>194.8007783998283</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E31" t="n">
-        <v>194.8007783998283</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>194.8007783998283</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6637,16 +6637,16 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T31" t="n">
         <v>1977.461080510508</v>
@@ -6661,10 +6661,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138409</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703107</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6701,7 +6701,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332388</v>
@@ -6713,10 +6713,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852256</v>
@@ -6731,16 +6731,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>951.777212765616</v>
+        <v>916.3099000622257</v>
       </c>
       <c r="C34" t="n">
-        <v>782.8410298377091</v>
+        <v>747.3737171343187</v>
       </c>
       <c r="D34" t="n">
-        <v>632.7243904253734</v>
+        <v>597.2570777219829</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>449.3439841395898</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>302.4540366416794</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>2090.84215317686</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625878</v>
+        <v>1836.157664970973</v>
       </c>
       <c r="W34" t="n">
-        <v>1400.559342807164</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X34" t="n">
-        <v>1172.569791909146</v>
+        <v>1318.750944035995</v>
       </c>
       <c r="Y34" t="n">
-        <v>951.777212765616</v>
+        <v>1097.958364892465</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6911,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111725</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6962,25 +6962,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.58045691144</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>847.6442739835331</v>
+        <v>929.7309773356196</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711974</v>
+        <v>779.6143379232839</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408909</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429806</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L37" t="n">
         <v>826.1405381797742</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1936.428221820188</v>
+        <v>2018.514925172275</v>
       </c>
       <c r="V37" t="n">
-        <v>1936.428221820188</v>
+        <v>2018.514925172275</v>
       </c>
       <c r="W37" t="n">
-        <v>1647.011051783227</v>
+        <v>1729.097755135314</v>
       </c>
       <c r="X37" t="n">
-        <v>1419.02150088521</v>
+        <v>1501.108204237297</v>
       </c>
       <c r="Y37" t="n">
-        <v>1198.22892174168</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,16 +7169,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014779</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.853600740071</v>
+        <v>803.2707707770313</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121641</v>
+        <v>634.3345878491244</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121641</v>
+        <v>484.2179484367887</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121641</v>
+        <v>484.2179484367887</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121641</v>
+        <v>484.2179484367887</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
         <v>826.1405381797745</v>
@@ -7366,16 +7366,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138409</v>
+        <v>1205.711814750801</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703107</v>
+        <v>984.919235607271</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
         <v>1948.813509611463</v>
@@ -7403,55 +7403,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192741</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,28 +7482,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400709</v>
+        <v>513.8536007400718</v>
       </c>
       <c r="C43" t="n">
-        <v>344.917417812164</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>344.917417812164</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>344.917417812164</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>344.917417812164</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270448</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7612,7 +7612,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703106</v>
+        <v>695.5020655703115</v>
       </c>
     </row>
     <row r="44">
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400713</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
         <v>402.7245934908939</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K46" t="n">
         <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703111</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8137,22 +8137,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457084</v>
+        <v>171.4142040457083</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711117</v>
+        <v>99.67938739116971</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>46.56605103777609</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>116.2490900608528</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>278.5493133433891</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>47.77706445331317</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>40.00791436438833</v>
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9556134883062555</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>21.89339468985728</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>24.14662204184545</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>98.88510599615206</v>
       </c>
       <c r="T11" t="n">
-        <v>128.9968447810581</v>
+        <v>201.9388203544491</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>144.7812958437571</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.074904880801739</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>88.05893071381843</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.81330679905234</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>186.2346889920368</v>
       </c>
       <c r="T13" t="n">
         <v>218.682419239904</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>143.826952573419</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,19 +23701,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>152.4862366927527</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>65.54986409393332</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>10.85445046951764</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>47.42036229045164</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>32.8926045706018</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194214</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>191.26917837023</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>57.22910392194208</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>43.848011171725</v>
       </c>
     </row>
     <row r="29">
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>65.54986409393094</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>207.8347205162522</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25084,16 +25084,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>99.26785128072238</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>36.30694539606381</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>245.5619442858267</v>
+        <v>260.4525338942709</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194242</v>
+        <v>0.5874149221296647</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25798,10 +25798,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194259</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194169</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>57.22910392194217</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.22910392194176</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26314,13 +26314,13 @@
         <v>307890.6636991063</v>
       </c>
       <c r="C2" t="n">
-        <v>307890.663699106</v>
+        <v>307890.6636991061</v>
       </c>
       <c r="D2" t="n">
-        <v>307890.6636991063</v>
+        <v>307890.6636991062</v>
       </c>
       <c r="E2" t="n">
-        <v>274720.9666028986</v>
+        <v>274720.9666028987</v>
       </c>
       <c r="F2" t="n">
         <v>302679.9748837521</v>
@@ -26338,22 +26338,22 @@
         <v>302679.9748837522</v>
       </c>
       <c r="K2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="L2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837524</v>
       </c>
       <c r="M2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837524</v>
       </c>
       <c r="N2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="O2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="P2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837523</v>
       </c>
     </row>
     <row r="3">
@@ -26369,37 +26369,37 @@
         <v>312214.8578912895</v>
       </c>
       <c r="D3" t="n">
-        <v>175413.4991972655</v>
+        <v>175413.4991972653</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545777</v>
+        <v>313577.1573545781</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704284</v>
+        <v>189308.2687704282</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854461</v>
+        <v>49064.94472854437</v>
       </c>
       <c r="K3" t="n">
-        <v>72591.00846030167</v>
+        <v>72591.00846030177</v>
       </c>
       <c r="L3" t="n">
-        <v>43280.5427992551</v>
+        <v>43280.54279925512</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273083</v>
+        <v>81897.40371273091</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202355</v>
+        <v>49839.5741320235</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>277470.8484307132</v>
       </c>
       <c r="C4" t="n">
-        <v>194111.7371403468</v>
+        <v>194111.7371403469</v>
       </c>
       <c r="D4" t="n">
         <v>145155.2306979382</v>
@@ -26430,31 +26430,31 @@
         <v>13606.80811184274</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184276</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184272</v>
+        <v>13606.80811184273</v>
       </c>
       <c r="I4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="J4" t="n">
+        <v>13606.80811184279</v>
+      </c>
+      <c r="K4" t="n">
         <v>13606.80811184274</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>13606.80811184274</v>
       </c>
-      <c r="K4" t="n">
-        <v>13606.80811184277</v>
-      </c>
-      <c r="L4" t="n">
-        <v>13606.80811184271</v>
-      </c>
       <c r="M4" t="n">
-        <v>13606.80811184277</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="N4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="O4" t="n">
-        <v>13606.8081118427</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="P4" t="n">
         <v>13606.80811184274</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
         <v>79427.52208638305</v>
@@ -26476,7 +26476,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.4850673857</v>
+        <v>85137.48506738571</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-617922.8876640658</v>
       </c>
       <c r="C6" t="n">
-        <v>-277863.4534189134</v>
+        <v>-277863.4534189133</v>
       </c>
       <c r="D6" t="n">
         <v>-105615.8386359421</v>
       </c>
       <c r="E6" t="n">
-        <v>-137495.065371261</v>
+        <v>-137716.196685236</v>
       </c>
       <c r="F6" t="n">
-        <v>-1357.631822426178</v>
+        <v>-1392.369747861667</v>
       </c>
       <c r="G6" t="n">
-        <v>187950.6369480025</v>
+        <v>187915.8990225666</v>
       </c>
       <c r="H6" t="n">
-        <v>187950.6369480022</v>
+        <v>187915.8990225666</v>
       </c>
       <c r="I6" t="n">
-        <v>187950.6369480024</v>
+        <v>187915.8990225666</v>
       </c>
       <c r="J6" t="n">
-        <v>138885.6922194577</v>
+        <v>138850.9542940223</v>
       </c>
       <c r="K6" t="n">
-        <v>115359.6284877007</v>
+        <v>115324.8905622649</v>
       </c>
       <c r="L6" t="n">
-        <v>144670.0941487473</v>
+        <v>144635.3562233117</v>
       </c>
       <c r="M6" t="n">
-        <v>106053.2332352715</v>
+        <v>106018.4953098359</v>
       </c>
       <c r="N6" t="n">
-        <v>138111.0628159788</v>
+        <v>138076.3248905432</v>
       </c>
       <c r="O6" t="n">
-        <v>187950.6369480023</v>
+        <v>187915.8990225667</v>
       </c>
       <c r="P6" t="n">
-        <v>187950.6369480023</v>
+        <v>187915.8990225667</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>791.2679074282997</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1202.241237214951</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>469.5770017178638</v>
+        <v>469.5770017178636</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490094</v>
+        <v>969.2208239490096</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26963,22 +26963,22 @@
         <v>242.7979665153952</v>
       </c>
       <c r="D3" t="n">
-        <v>142.7969846892396</v>
+        <v>142.7969846892394</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974115</v>
+        <v>268.176345097412</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267229</v>
+        <v>165.7342631267227</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
         <v>282.0514145515438</v>
       </c>
       <c r="D4" t="n">
-        <v>171.007830382175</v>
+        <v>171.0078303821753</v>
       </c>
       <c r="E4" t="n">
-        <v>328.6359918489707</v>
+        <v>328.6359918489708</v>
       </c>
       <c r="F4" t="n">
         <v>203.4874641506387</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="K4" t="n">
-        <v>282.0514145515436</v>
+        <v>282.051414551544</v>
       </c>
       <c r="L4" t="n">
-        <v>171.0078303821752</v>
+        <v>171.0078303821753</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489704</v>
+        <v>328.6359918489708</v>
       </c>
       <c r="N4" t="n">
-        <v>203.487464150639</v>
+        <v>203.4874641506387</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
         <v>282.0514145515438</v>
       </c>
       <c r="L4" t="n">
-        <v>171.007830382175</v>
+        <v>171.0078303821753</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489707</v>
+        <v>328.6359918489708</v>
       </c>
       <c r="N4" t="n">
         <v>203.4874641506387</v>
@@ -27379,19 +27379,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>177.7473046046877</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>167.1574544543631</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>237.4168669630894</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>254.801341795675</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>63.64367339871038</v>
+        <v>63.64367339871047</v>
       </c>
       <c r="V2" t="n">
-        <v>140.226671303815</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27461,19 +27461,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
         <v>48.77881175550657</v>
@@ -27512,16 +27512,16 @@
         <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377106</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310532</v>
+        <v>45.2749999831054</v>
       </c>
       <c r="W3" t="n">
-        <v>144.314400840107</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>25.05529907158947</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
@@ -27591,7 +27591,7 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>180.9128834454384</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>158.4826315822122</v>
+        <v>31.05906618577492</v>
       </c>
     </row>
     <row r="5">
@@ -27622,10 +27622,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>32.96200879085083</v>
       </c>
       <c r="T5" t="n">
-        <v>209.1711248816494</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0911747868545</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>326.2482464235509</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27698,7 +27698,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>43.73682350102116</v>
+        <v>11.84312845888331</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27710,7 +27710,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>95.79797317841046</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27743,10 +27743,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>140.0697787646034</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.3045852332498</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27777,16 +27777,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5641028040799</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>149.5409427785071</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>113.1358328502782</v>
       </c>
       <c r="S7" t="n">
-        <v>199.15003117566</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>221.8489350595717</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>245.5043086038056</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>175.7238705224275</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>372.9614309259142</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>8.765864810293102</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>212.4384710180345</v>
+        <v>219.0038361031943</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.312520215259725e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28551,7 +28551,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>-2.701199264265597e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.041087216435699e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-2.250999386887997e-12</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.043337237080447e-14</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>-1.267083570430044e-13</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869145</v>
+        <v>4.833130601869146</v>
       </c>
       <c r="H11" t="n">
-        <v>49.4972987763924</v>
+        <v>49.49729877639241</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285604</v>
+        <v>186.3292675285605</v>
       </c>
       <c r="J11" t="n">
         <v>410.2059184203918</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975128</v>
+        <v>614.7923367975129</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544658</v>
+        <v>762.704257454466</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954562</v>
+        <v>848.6554437954563</v>
       </c>
       <c r="N11" t="n">
-        <v>862.387576118017</v>
+        <v>862.3875761180171</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956807</v>
+        <v>814.3281336956808</v>
       </c>
       <c r="P11" t="n">
-        <v>695.010221962036</v>
+        <v>695.0102219620361</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.923732282597</v>
+        <v>521.9237322825971</v>
       </c>
       <c r="R11" t="n">
         <v>303.599140169663</v>
@@ -31792,7 +31792,7 @@
         <v>21.1570292096822</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495315</v>
+        <v>0.3866504481495316</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,31 +31835,31 @@
         <v>24.97486041837097</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469213</v>
+        <v>89.03390294469214</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>244.3158348193138</v>
       </c>
       <c r="K12" t="n">
-        <v>417.5746757598382</v>
+        <v>417.5746757598383</v>
       </c>
       <c r="L12" t="n">
-        <v>561.480683474775</v>
+        <v>561.4806834747751</v>
       </c>
       <c r="M12" t="n">
-        <v>382.5526639806296</v>
+        <v>655.2214742821483</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340506</v>
+        <v>282.4162185798842</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924475</v>
+        <v>615.2639659924477</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383447</v>
+        <v>493.8035753383448</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.0946129047541</v>
+        <v>330.0946129047542</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31868,7 +31868,7 @@
         <v>48.03293999627655</v>
       </c>
       <c r="T12" t="n">
-        <v>10.42320468868433</v>
+        <v>10.42320468868434</v>
       </c>
       <c r="U12" t="n">
         <v>0.1701284769643799</v>
@@ -31911,19 +31911,19 @@
         <v>2.167976001535157</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092168</v>
+        <v>19.27527754092169</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798455</v>
+        <v>65.19695102798457</v>
       </c>
       <c r="J13" t="n">
         <v>153.2759033085356</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329027</v>
+        <v>251.8793936329028</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100542</v>
+        <v>322.3189048100543</v>
       </c>
       <c r="M13" t="n">
         <v>339.8400926770065</v>
@@ -31932,25 +31932,25 @@
         <v>331.759454853103</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806239</v>
+        <v>306.433553380624</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493065</v>
+        <v>262.2068429493066</v>
       </c>
       <c r="Q13" t="n">
         <v>181.5384268194576</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811713</v>
+        <v>97.48008457811714</v>
       </c>
       <c r="S13" t="n">
-        <v>37.7819090449354</v>
+        <v>37.78190904493541</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377487</v>
+        <v>9.263170188377488</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473723</v>
+        <v>0.1182532364473724</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32084,7 +32084,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32093,10 +32093,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,10 +32309,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
@@ -32321,28 +32321,28 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>171.410447117911</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32552,19 +32552,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>183.7183104822601</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>444.2274915982894</v>
+        <v>379.4203056753698</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,10 +33023,10 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,7 +33035,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,10 +33968,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067246</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,13 +34205,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,10 +34223,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>92.63945645062401</v>
       </c>
       <c r="L4" t="n">
         <v>174.6339172880152</v>
       </c>
       <c r="M4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="N4" t="n">
-        <v>187.52558716632</v>
+        <v>123.344572686378</v>
       </c>
       <c r="O4" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>28.45844197068223</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>33.96144874760697</v>
+        <v>150.2105388084597</v>
       </c>
       <c r="K6" t="n">
         <v>136.989792608544</v>
@@ -35030,10 +35030,10 @@
         <v>262.3463043693572</v>
       </c>
       <c r="P6" t="n">
-        <v>469.5770017178638</v>
+        <v>191.0276883744746</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.0505844974166</v>
+        <v>287.3508077799524</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>187.5431097317911</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>0.9556134883073677</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>229.1600138937055</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525323</v>
+        <v>394.7024857525324</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844786</v>
+        <v>526.9378424844788</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681835</v>
+        <v>618.3092105681836</v>
       </c>
       <c r="N11" t="n">
-        <v>632.974512521426</v>
+        <v>632.9745125214263</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739939</v>
+        <v>584.229922273994</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067664</v>
+        <v>463.7772262067666</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081475</v>
+        <v>299.6180424081476</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553085</v>
+        <v>88.01360235553091</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>117.4782081526471</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854792</v>
+        <v>279.7332367854793</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949008</v>
+        <v>422.9263036949009</v>
       </c>
       <c r="M12" t="n">
-        <v>240.4186300586113</v>
+        <v>513.0874403601299</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507174</v>
+        <v>151.0745064965509</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480031</v>
+        <v>472.6677215480032</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240144</v>
+        <v>359.8291679240145</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187326</v>
+        <v>190.1128388187327</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186281</v>
+        <v>59.91672319186284</v>
       </c>
       <c r="K13" t="n">
         <v>229.6099018070199</v>
@@ -35574,19 +35574,19 @@
         <v>349.9089300703704</v>
       </c>
       <c r="M13" t="n">
-        <v>379.423969638847</v>
+        <v>379.4239696388471</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323315</v>
+        <v>375.8916272323316</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946636</v>
+        <v>331.0186812946637</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022142</v>
+        <v>259.4854022142001</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.3763835677632</v>
+        <v>95.37638356776323</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35732,7 +35732,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35741,10 +35741,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,10 +35957,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35969,22 +35969,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394708</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36200,19 +36200,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36282,7 +36282,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191306</v>
       </c>
       <c r="M22" t="n">
         <v>426.2724270010451</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>302.093457676271</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,7 +36683,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236318714</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,10 +37871,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
